--- a/media/tmp/users_acts/acts_1_1.xlsx
+++ b/media/tmp/users_acts/acts_1_1.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B4"/>
+  <dimension ref="A1:B11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -429,43 +429,127 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>root None</t>
+          <t>root dshutrin@mail.ru</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2024-10-10 07:59:04.685990+00:00</t>
+          <t>2024-10-11 17:24:17.202095+00:00</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Удаление документа "sdfsdf"</t>
+          <t>Создание прайс-листа "Второстепенный"</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2024-10-10 05:33:38.332848+00:00</t>
+          <t>2024-10-11 17:16:49.360006+00:00</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Обновление прайс-листа</t>
+          <t>Создание документа "ыфвмфым"</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>2024-10-10 05:32:48.696950+00:00</t>
+          <t>2024-10-11 17:16:37.329313+00:00</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>Создание папки "ывамом"</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>2024-10-11 17:16:27.273652+00:00</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Создание папки "папка в папке"</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>2024-10-11 17:16:20.436955+00:00</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Создание папки "Основная папка"</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>2024-10-11 17:16:05.524086+00:00</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Создание файла "Файл 1й"</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>2024-10-11 17:14:55.065995+00:00</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>Обновление прайс-листа</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>2024-10-11 17:14:35.486118+00:00</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Создание прайс-листа "Второстепенный"</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>2024-10-11 08:49:19.187717+00:00</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Обновление прайс-листа</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>2024-10-11 08:49:02.816531+00:00</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Создание прайс-листа "Основной"</t>
         </is>
       </c>
     </row>
